--- a/LaunchProject/weather/RocketLaunchDataCompleted.xlsx
+++ b/LaunchProject/weather/RocketLaunchDataCompleted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghorbaj/Google Drive/Codes/MSFT_Nasa/weather/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\aed-content-nasa-su20\LaunchProject\weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A67EA2-B97E-7D4C-8722-808B98DA3A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE465FF6-CC25-41AD-8585-17A0E1E643AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240" xr2:uid="{5C3E01C8-E00E-4E25-94E5-25E6664D94E2}"/>
+    <workbookView xWindow="20190" yWindow="390" windowWidth="28905" windowHeight="20850" xr2:uid="{5C3E01C8-E00E-4E25-94E5-25E6664D94E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rocket Launches" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="251">
   <si>
     <t>Name</t>
   </si>
@@ -795,7 +795,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1249,36 +1249,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC6975F-1241-4512-AEE7-2A9233963C6F}">
-  <dimension ref="A1:Z305"/>
+  <dimension ref="A1:Z301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E301" sqref="E301"/>
+      <selection pane="bottomLeft" activeCell="F299" sqref="F299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
     <col min="20" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>21523</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>21524</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>21526</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>21527</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>21610</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>21611</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>21613</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>21614</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>22514</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>22515</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>22517</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>22518</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>22601</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>22602</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>22604</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>22605</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>22670</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>22671</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>22673</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>22674</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>22757</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>22758</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>22760</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>22761</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>22935</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>22936</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>22938</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>22939</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>23404</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>23405</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>23407</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>23408</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>23584</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>23585</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>23587</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>23588</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>23788</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>23789</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>23791</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>23792</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>23820</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>23821</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>23823</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>23824</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>24255</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>24256</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>24258</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>24259</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>24368</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>24369</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>24371</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>24372</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>24577</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>24578</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>24580</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>24581</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>24665</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>24666</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>24668</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>24669</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>24721</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>24722</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>24724</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>24725</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>24781</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>24782</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>62</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>24784</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>24785</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>24842</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>24843</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>64</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>24845</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>24846</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>23707</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>23708</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>65</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>23710</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>23711</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>25622</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>25623</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>66</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>25625</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>25626</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>26060</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>26061</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>67</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>26063</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>26064</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>26081</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>26082</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>68</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>26084</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>26085</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>36161</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>36162</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>69</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>36164</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>36165</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>40871</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>40872</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>70</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>40874</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>40875</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>41594</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>41595</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>71</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>41597</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>41598</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>39296</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>39297</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>72</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>39299</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>39300</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>27644</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>27645</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>73</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>27647</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>27648</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>35716</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>35717</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>74</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>35719</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>35720</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>39350</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>39351</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>39353</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>39354</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>32797</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>32798</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>77</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>32800</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>32801</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="152" spans="1:25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>37109</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>37110</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="1:25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>78</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="1:25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>37112</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>37113</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>33150</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="158" spans="1:25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>33151</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="159" spans="1:25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>79</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>33153</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>33154</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>40758</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>40759</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>80</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>40761</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>40762</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>38734</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>38735</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>81</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>38737</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>38738</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="1:25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>38362</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>38363</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>82</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>38365</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="1:25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>38366</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>36090</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>36091</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>83</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>36093</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>36094</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>36196</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="1:25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>36197</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="184" spans="1:25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>84</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="185" spans="1:25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>36199</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>36200</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="187" spans="1:25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>28371</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>28372</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>85</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>28374</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>28375</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>28355</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>28356</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>86</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>28358</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="196" spans="1:25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>28359</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>26358</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>26359</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="199" spans="1:25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>87</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>26361</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>26362</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="202" spans="1:25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>26758</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="203" spans="1:25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>26759</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="204" spans="1:25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>89</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>26761</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>26762</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>24506</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="208" spans="1:25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>24507</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:25">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>90</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="210" spans="1:25">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>24509</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="211" spans="1:25">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>24510</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="212" spans="1:25">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>24594</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="213" spans="1:25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>24595</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="214" spans="1:25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>91</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="215" spans="1:25">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>24597</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:25">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>24598</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>24683</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="218" spans="1:25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>24684</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="219" spans="1:25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>92</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>24686</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>24687</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="1:25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>25120</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>25121</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="224" spans="1:25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>93</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="225" spans="1:25">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>25123</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:25">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>25124</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:25">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>25191</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="1:25">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>25192</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="229" spans="1:25">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>95</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:25">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>25194</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:25">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>25195</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:25">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>25398</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:25">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>25399</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="1:25">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>96</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="235" spans="1:25">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>25401</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="236" spans="1:25">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>25402</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:25">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>25519</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:25">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>25520</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:25">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>97</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="240" spans="1:25">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>25522</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:25">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>25523</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="1:25">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>25667</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="243" spans="1:25">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>25668</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:25">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>98</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="1:25">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>25670</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="246" spans="1:25">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>25671</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="247" spans="1:25">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>25971</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:25">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>25972</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="249" spans="1:25">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>99</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="250" spans="1:25">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>25974</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:25">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>25975</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="252" spans="1:25">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>26138</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="253" spans="1:25">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>26139</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="254" spans="1:25">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>100</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="255" spans="1:25">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>26141</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="256" spans="1:25">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>26142</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="257" spans="1:25">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>26403</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" spans="1:25">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>26404</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:25">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>101</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:25">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>26406</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:25">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>26407</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="262" spans="1:25">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>23822</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="263" spans="1:25">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>23823</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="264" spans="1:25">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>102</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="265" spans="1:25">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>23825</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="266" spans="1:25">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>23826</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:25">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>23894</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:25">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>23895</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="269" spans="1:25">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>103</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="270" spans="1:25">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>23897</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="271" spans="1:25">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>23898</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:25">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>23973</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="273" spans="1:25">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>23974</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:25">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>104</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:25">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>23976</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="276" spans="1:25">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>23977</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" spans="1:25">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>24078</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="278" spans="1:25">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>24079</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="279" spans="1:25">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>105</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="280" spans="1:25">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>24081</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:25">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>24082</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="282" spans="1:25">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <v>24180</v>
       </c>
@@ -16365,7 +16365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="283" spans="1:25">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <v>24181</v>
       </c>
@@ -16415,7 +16415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:25">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>106</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="285" spans="1:25">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <v>24183</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="286" spans="1:25">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <v>24184</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="287" spans="1:25">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <v>24259</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="288" spans="1:25">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <v>24260</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="1:26">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>107</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:26">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <v>24262</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:26">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <v>24263</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="292" spans="1:26">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <v>43976</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="293" spans="1:26">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <v>43977</v>
       </c>
@@ -16954,7 +16954,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="294" spans="1:26">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>110</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="295" spans="1:26">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <v>43979</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="296" spans="1:26">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <v>43980</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="297" spans="1:26">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <v>43979</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="298" spans="1:26">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <v>43980</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="299" spans="1:26">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>110</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="300" spans="1:26">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <v>43982</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:26">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <v>43983</v>
       </c>
@@ -17390,278 +17390,6 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="Y301" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="302" spans="1:26">
-      <c r="A302" t="s">
-        <v>103</v>
-      </c>
-      <c r="B302" s="1">
-        <v>23896</v>
-      </c>
-      <c r="C302" s="2">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="D302" t="s">
-        <v>26</v>
-      </c>
-      <c r="E302" t="s">
-        <v>94</v>
-      </c>
-      <c r="F302" t="s">
-        <v>33</v>
-      </c>
-      <c r="G302">
-        <v>97</v>
-      </c>
-      <c r="H302">
-        <v>75</v>
-      </c>
-      <c r="I302">
-        <v>84.81</v>
-      </c>
-      <c r="J302">
-        <v>98</v>
-      </c>
-      <c r="K302">
-        <v>88</v>
-      </c>
-      <c r="L302">
-        <v>71</v>
-      </c>
-      <c r="M302">
-        <v>79</v>
-      </c>
-      <c r="N302">
-        <v>0</v>
-      </c>
-      <c r="O302">
-        <v>0.19</v>
-      </c>
-      <c r="P302" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q302">
-        <v>13</v>
-      </c>
-      <c r="R302">
-        <v>10</v>
-      </c>
-      <c r="S302">
-        <v>8</v>
-      </c>
-      <c r="V302">
-        <v>30</v>
-      </c>
-      <c r="X302" s="2">
-        <v>0.5756944444444444</v>
-      </c>
-      <c r="Y302" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="303" spans="1:26">
-      <c r="A303" t="s">
-        <v>104</v>
-      </c>
-      <c r="B303" s="1">
-        <v>23975</v>
-      </c>
-      <c r="C303" s="2">
-        <v>0.62430555555555556</v>
-      </c>
-      <c r="D303" t="s">
-        <v>26</v>
-      </c>
-      <c r="E303" t="s">
-        <v>94</v>
-      </c>
-      <c r="F303" t="s">
-        <v>33</v>
-      </c>
-      <c r="G303">
-        <v>90</v>
-      </c>
-      <c r="H303">
-        <v>0</v>
-      </c>
-      <c r="I303">
-        <v>74.52</v>
-      </c>
-      <c r="J303">
-        <v>79</v>
-      </c>
-      <c r="K303">
-        <v>90</v>
-      </c>
-      <c r="L303">
-        <v>73</v>
-      </c>
-      <c r="M303">
-        <v>82</v>
-      </c>
-      <c r="N303">
-        <v>0.5</v>
-      </c>
-      <c r="O303">
-        <v>0.24</v>
-      </c>
-      <c r="P303" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q303">
-        <v>23</v>
-      </c>
-      <c r="R303">
-        <v>10</v>
-      </c>
-      <c r="S303">
-        <v>15</v>
-      </c>
-      <c r="V303">
-        <v>30.06</v>
-      </c>
-      <c r="X303" s="2">
-        <v>0.54097222222222219</v>
-      </c>
-      <c r="Y303" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="304" spans="1:26">
-      <c r="A304" t="s">
-        <v>105</v>
-      </c>
-      <c r="B304" s="1">
-        <v>24080</v>
-      </c>
-      <c r="C304" s="2">
-        <v>0.8354166666666667</v>
-      </c>
-      <c r="D304" t="s">
-        <v>26</v>
-      </c>
-      <c r="E304" t="s">
-        <v>94</v>
-      </c>
-      <c r="F304" t="s">
-        <v>33</v>
-      </c>
-      <c r="G304">
-        <v>77</v>
-      </c>
-      <c r="H304">
-        <v>67</v>
-      </c>
-      <c r="I304">
-        <v>71.52</v>
-      </c>
-      <c r="J304">
-        <v>71</v>
-      </c>
-      <c r="K304">
-        <v>75</v>
-      </c>
-      <c r="L304">
-        <v>55</v>
-      </c>
-      <c r="M304">
-        <v>65</v>
-      </c>
-      <c r="N304">
-        <v>0</v>
-      </c>
-      <c r="O304">
-        <v>0.08</v>
-      </c>
-      <c r="P304" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q304">
-        <v>15</v>
-      </c>
-      <c r="R304">
-        <v>10</v>
-      </c>
-      <c r="S304">
-        <v>12</v>
-      </c>
-      <c r="V304">
-        <v>30.19</v>
-      </c>
-      <c r="X304" s="2">
-        <v>0.43541666666666662</v>
-      </c>
-      <c r="Y304" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="305" spans="1:25">
-      <c r="A305" t="s">
-        <v>106</v>
-      </c>
-      <c r="B305" s="1">
-        <v>24182</v>
-      </c>
-      <c r="C305" s="2">
-        <v>0.7368055555555556</v>
-      </c>
-      <c r="D305" t="s">
-        <v>26</v>
-      </c>
-      <c r="E305" t="s">
-        <v>94</v>
-      </c>
-      <c r="F305" t="s">
-        <v>33</v>
-      </c>
-      <c r="G305">
-        <v>85</v>
-      </c>
-      <c r="H305">
-        <v>0</v>
-      </c>
-      <c r="I305">
-        <v>64.81</v>
-      </c>
-      <c r="J305">
-        <v>80</v>
-      </c>
-      <c r="K305">
-        <v>77</v>
-      </c>
-      <c r="L305">
-        <v>55</v>
-      </c>
-      <c r="M305">
-        <v>66</v>
-      </c>
-      <c r="N305">
-        <v>0</v>
-      </c>
-      <c r="O305">
-        <v>0.11</v>
-      </c>
-      <c r="P305" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q305">
-        <v>16</v>
-      </c>
-      <c r="R305">
-        <v>15</v>
-      </c>
-      <c r="S305">
-        <v>4</v>
-      </c>
-      <c r="V305">
-        <v>29.95</v>
-      </c>
-      <c r="X305" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y305" t="s">
         <v>28</v>
       </c>
     </row>
@@ -17679,59 +17407,59 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>3.6805555555555557E-2</v>
       </c>
@@ -17763,7 +17491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>7.8472222222222221E-2</v>
       </c>
@@ -17795,7 +17523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>0.12013888888888889</v>
       </c>
@@ -17827,7 +17555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>0.16180555555555556</v>
       </c>
@@ -17859,7 +17587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>0.20347222222222219</v>
       </c>
@@ -17891,7 +17619,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>0.24513888888888888</v>
       </c>
@@ -17923,7 +17651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>0.28680555555555554</v>
       </c>
@@ -17955,7 +17683,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>0.32847222222222222</v>
       </c>
@@ -17987,7 +17715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>0.37013888888888885</v>
       </c>
@@ -18019,7 +17747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>0.41180555555555554</v>
       </c>
@@ -18051,7 +17779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>0.45347222222222222</v>
       </c>
@@ -18083,7 +17811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>0.49513888888888885</v>
       </c>
@@ -18115,7 +17843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>0.53680555555555554</v>
       </c>
@@ -18147,7 +17875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>0.57847222222222217</v>
       </c>
@@ -18179,7 +17907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>0.61249999999999993</v>
       </c>
@@ -18211,7 +17939,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>0.61875000000000002</v>
       </c>
@@ -18243,7 +17971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>0.62013888888888891</v>
       </c>
@@ -18275,7 +18003,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>0.62361111111111112</v>
       </c>
@@ -18307,7 +18035,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>0.625</v>
       </c>
@@ -18339,7 +18067,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>0.62986111111111109</v>
       </c>
@@ -18371,7 +18099,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>0.6333333333333333</v>
       </c>
@@ -18403,7 +18131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>0.63888888888888895</v>
       </c>
@@ -18435,7 +18163,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>0.65277777777777779</v>
       </c>
@@ -18467,7 +18195,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>0.66180555555555554</v>
       </c>
@@ -18499,7 +18227,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>0.67013888888888884</v>
       </c>
@@ -18531,7 +18259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>0.70347222222222217</v>
       </c>
@@ -18563,7 +18291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>0.74513888888888891</v>
       </c>
@@ -18595,7 +18323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>0.78680555555555554</v>
       </c>
@@ -18627,7 +18355,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>0.82847222222222217</v>
       </c>
@@ -18659,7 +18387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>0.87013888888888891</v>
       </c>
@@ -18691,7 +18419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>0.91180555555555554</v>
       </c>
@@ -18723,7 +18451,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>0.93472222222222223</v>
       </c>
@@ -18755,7 +18483,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>0.95347222222222217</v>
       </c>
@@ -18787,7 +18515,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>0.97638888888888886</v>
       </c>
@@ -18832,59 +18560,59 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>3.6805555555555557E-2</v>
       </c>
@@ -18916,7 +18644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>7.8472222222222221E-2</v>
       </c>
@@ -18948,7 +18676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>0.12013888888888889</v>
       </c>
@@ -18980,7 +18708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>0.16180555555555556</v>
       </c>
@@ -19012,7 +18740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>0.20347222222222219</v>
       </c>
@@ -19044,7 +18772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>0.23333333333333331</v>
       </c>
@@ -19076,7 +18804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>0.24513888888888888</v>
       </c>
@@ -19108,7 +18836,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>0.25833333333333336</v>
       </c>
@@ -19140,7 +18868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>0.26319444444444445</v>
       </c>
@@ -19172,7 +18900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>0.26805555555555555</v>
       </c>
@@ -19204,7 +18932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>0.27569444444444446</v>
       </c>
@@ -19236,7 +18964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>0.28541666666666665</v>
       </c>
@@ -19268,7 +18996,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>0.28611111111111115</v>
       </c>
@@ -19300,7 +19028,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>0.29097222222222224</v>
       </c>
@@ -19332,7 +19060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>0.30624999999999997</v>
       </c>
@@ -19364,7 +19092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>0.31666666666666665</v>
       </c>
@@ -19396,7 +19124,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>0.32847222222222222</v>
       </c>
@@ -19428,7 +19156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>0.37013888888888885</v>
       </c>
@@ -19460,7 +19188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>0.41180555555555554</v>
       </c>
@@ -19492,7 +19220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>0.41666666666666669</v>
       </c>
@@ -19524,7 +19252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>0.45347222222222222</v>
       </c>
@@ -19556,7 +19284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>0.4777777777777778</v>
       </c>
@@ -19588,7 +19316,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>0.48472222222222222</v>
       </c>
@@ -19620,7 +19348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>0.49513888888888885</v>
       </c>
@@ -19652,7 +19380,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>0.49652777777777773</v>
       </c>
@@ -19684,7 +19412,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>0.4993055555555555</v>
       </c>
@@ -19716,7 +19444,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>0.50277777777777777</v>
       </c>
@@ -19748,7 +19476,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>0.50694444444444442</v>
       </c>
@@ -19780,7 +19508,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>0.51180555555555551</v>
       </c>
@@ -19812,7 +19540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>0.52013888888888882</v>
       </c>
@@ -19844,95 +19572,95 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="D50" s="13"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="D52" s="13"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="D53" s="13"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="D54" s="13"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="D55" s="13"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="D56" s="13"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="D57" s="13"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="D58" s="13"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="D59" s="13"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="D60" s="13"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="D61" s="13"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="D62" s="13"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="D63" s="13"/>
     </row>
@@ -19949,13 +19677,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>113</v>
       </c>
@@ -19987,7 +19715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -20019,7 +19747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -20051,7 +19779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -20083,7 +19811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>0.125</v>
       </c>
@@ -20115,7 +19843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>0.16666666666666666</v>
       </c>
@@ -20147,7 +19875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>0.20833333333333334</v>
       </c>
@@ -20179,7 +19907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>0.25</v>
       </c>
@@ -20211,7 +19939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>0.29166666666666669</v>
       </c>
@@ -20243,7 +19971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>0.33333333333333331</v>
       </c>
@@ -20275,7 +20003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>0.375</v>
       </c>
@@ -20307,7 +20035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>0.41666666666666669</v>
       </c>
@@ -20339,7 +20067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>0.45833333333333331</v>
       </c>
@@ -20371,7 +20099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>0.5</v>
       </c>
@@ -20403,7 +20131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>0.54166666666666663</v>
       </c>
@@ -20435,7 +20163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>0.58333333333333337</v>
       </c>
@@ -20467,7 +20195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>0.625</v>
       </c>
@@ -20499,7 +20227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>0.66666666666666663</v>
       </c>
@@ -20531,7 +20259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>0.70833333333333337</v>
       </c>
@@ -20563,7 +20291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>0.75</v>
       </c>
@@ -20595,7 +20323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>0.79166666666666663</v>
       </c>
@@ -20627,7 +20355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>0.83333333333333337</v>
       </c>
@@ -20659,7 +20387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>0.875</v>
       </c>
@@ -20691,7 +20419,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>0.91666666666666663</v>
       </c>
@@ -20723,7 +20451,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>0.95833333333333337</v>
       </c>
@@ -20761,6 +20489,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009FA602AEF728D64AA0A0E0C1743597A3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f798622e76a37d06746f913c81c0742a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5e2e469a-fc38-4d3e-a8b0-b3d70207518b" xmlns:ns4="a0f2993e-c0c3-4c95-8734-911ad58dca13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c17aa555a9762b57b66252758b011588" ns3:_="" ns4:_="">
     <xsd:import namespace="5e2e469a-fc38-4d3e-a8b0-b3d70207518b"/>
@@ -20983,22 +20726,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01ACC9F2-B99D-40EB-ACBC-41C24317C64F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348F834C-E169-48E4-A067-3F55F01F86B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D11F525-B1A3-49BA-96F5-8E363BBB7284}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21015,21 +20760,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348F834C-E169-48E4-A067-3F55F01F86B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01ACC9F2-B99D-40EB-ACBC-41C24317C64F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>